--- a/version6_original/version6/Tool/01_data/cases/IEEE118_FULL.xlsx
+++ b/version6_original/version6/Tool/01_data/cases/IEEE118_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseparevalosoler/Library/CloudStorage/GoogleDrive-josep.arevalo@upc.edu/La meva unitat/ACDC tool/ACDC/01_data/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original2\datagen\version6_original\version6\Tool\01_data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4451F53-8459-5648-B0FE-39FBD4D0B56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E622B57D-FDFB-462A-A17D-882236CB08EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1460" windowWidth="26000" windowHeight="10900" tabRatio="922" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2496" yWindow="1464" windowWidth="26004" windowHeight="10896" tabRatio="922" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="PF_DC" sheetId="22" r:id="rId14"/>
     <sheet name="CASE" sheetId="19" r:id="rId15"/>
     <sheet name="sim" sheetId="17" r:id="rId16"/>
+    <sheet name="SHUNT" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="99">
   <si>
     <t>bus</t>
   </si>
@@ -350,15 +351,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -465,7 +466,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,15 +561,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -587,12 +588,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -923,14 +924,14 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="8.6640625" style="5"/>
-    <col min="7" max="7" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
@@ -953,7 +954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -976,8 +977,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777778" bottom="1.0527777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -996,13 +997,13 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="12" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1081,7 +1082,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1101,7 +1102,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1121,7 +1122,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1141,7 +1142,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1161,7 +1162,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1181,7 +1182,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="13.8" x14ac:dyDescent="0.3">
       <c r="F8" s="1"/>
     </row>
   </sheetData>
@@ -1203,21 +1204,21 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K8" s="11"/>
     </row>
   </sheetData>
@@ -1293,12 +1294,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -1339,62 +1340,62 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1409,16 +1410,16 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="8.6640625" style="3"/>
     <col min="7" max="7" width="8.6640625" style="51"/>
     <col min="8" max="8" width="18.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -1438,7 +1439,7 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1458,7 +1459,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1478,7 +1479,7 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1498,7 +1499,7 @@
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1518,7 +1519,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
     </row>
-    <row r="6" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1538,7 +1539,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1618,7 +1619,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1638,7 +1639,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1658,7 +1659,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1678,7 +1679,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1698,7 +1699,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1718,7 +1719,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1758,7 +1759,7 @@
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1778,7 +1779,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1798,7 +1799,7 @@
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1818,7 +1819,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1838,7 +1839,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1858,7 +1859,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="50"/>
     </row>
-    <row r="23" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1878,7 +1879,7 @@
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1918,7 +1919,7 @@
       <c r="H25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1938,7 +1939,7 @@
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1958,7 +1959,7 @@
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1978,7 +1979,7 @@
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
     </row>
-    <row r="29" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2018,7 +2019,7 @@
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
     </row>
-    <row r="31" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2038,7 +2039,7 @@
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
     </row>
-    <row r="32" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2058,7 +2059,7 @@
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2078,7 +2079,7 @@
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
     </row>
-    <row r="34" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2098,7 +2099,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
     </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2118,7 +2119,7 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
     </row>
-    <row r="36" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2138,7 +2139,7 @@
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
     </row>
-    <row r="37" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2158,7 +2159,7 @@
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
     </row>
-    <row r="38" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2178,7 +2179,7 @@
       <c r="H38" s="50"/>
       <c r="I38" s="50"/>
     </row>
-    <row r="39" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2198,7 +2199,7 @@
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
     </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2218,7 +2219,7 @@
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
     </row>
-    <row r="41" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2238,7 +2239,7 @@
       <c r="H41" s="50"/>
       <c r="I41" s="50"/>
     </row>
-    <row r="42" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -2258,7 +2259,7 @@
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
     </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>44</v>
       </c>
@@ -2278,7 +2279,7 @@
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
     </row>
-    <row r="44" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2298,7 +2299,7 @@
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
     </row>
-    <row r="45" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2318,7 +2319,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
     </row>
-    <row r="46" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2338,7 +2339,7 @@
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
     </row>
-    <row r="47" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2358,7 +2359,7 @@
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>49</v>
       </c>
@@ -2378,7 +2379,7 @@
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
     </row>
-    <row r="49" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
     </row>
-    <row r="50" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>51</v>
       </c>
@@ -2418,7 +2419,7 @@
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
     </row>
-    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>52</v>
       </c>
@@ -2438,7 +2439,7 @@
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
     </row>
-    <row r="52" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>53</v>
       </c>
@@ -2458,7 +2459,7 @@
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
     </row>
-    <row r="53" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>54</v>
       </c>
@@ -2478,7 +2479,7 @@
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
     </row>
-    <row r="54" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>55</v>
       </c>
@@ -2498,7 +2499,7 @@
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
     </row>
-    <row r="55" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>56</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
     </row>
-    <row r="56" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>57</v>
       </c>
@@ -2538,7 +2539,7 @@
       <c r="H56" s="50"/>
       <c r="I56" s="50"/>
     </row>
-    <row r="57" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>58</v>
       </c>
@@ -2558,7 +2559,7 @@
       <c r="H57" s="50"/>
       <c r="I57" s="50"/>
     </row>
-    <row r="58" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>59</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
     </row>
-    <row r="59" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60</v>
       </c>
@@ -2598,7 +2599,7 @@
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
     </row>
-    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>61</v>
       </c>
@@ -2618,7 +2619,7 @@
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
     </row>
-    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>62</v>
       </c>
@@ -2638,7 +2639,7 @@
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
     </row>
-    <row r="62" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>63</v>
       </c>
@@ -2658,7 +2659,7 @@
       <c r="H62" s="50"/>
       <c r="I62" s="50"/>
     </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>64</v>
       </c>
@@ -2678,7 +2679,7 @@
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
     </row>
-    <row r="64" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>65</v>
       </c>
@@ -2698,7 +2699,7 @@
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
     </row>
-    <row r="65" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>66</v>
       </c>
@@ -2718,7 +2719,7 @@
       <c r="H65" s="50"/>
       <c r="I65" s="50"/>
     </row>
-    <row r="66" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>67</v>
       </c>
@@ -2738,7 +2739,7 @@
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
     </row>
-    <row r="67" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>68</v>
       </c>
@@ -2758,7 +2759,7 @@
       <c r="H67" s="50"/>
       <c r="I67" s="50"/>
     </row>
-    <row r="68" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>69</v>
       </c>
@@ -2778,7 +2779,7 @@
       <c r="H68" s="50"/>
       <c r="I68" s="50"/>
     </row>
-    <row r="69" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70</v>
       </c>
@@ -2798,7 +2799,7 @@
       <c r="H69" s="50"/>
       <c r="I69" s="50"/>
     </row>
-    <row r="70" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>71</v>
       </c>
@@ -2818,7 +2819,7 @@
       <c r="H70" s="50"/>
       <c r="I70" s="50"/>
     </row>
-    <row r="71" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>72</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
     </row>
-    <row r="72" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>73</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="H72" s="50"/>
       <c r="I72" s="50"/>
     </row>
-    <row r="73" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>74</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="H73" s="50"/>
       <c r="I73" s="50"/>
     </row>
-    <row r="74" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>75</v>
       </c>
@@ -2898,7 +2899,7 @@
       <c r="H74" s="50"/>
       <c r="I74" s="50"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>76</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>1.3064278493735499</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>77</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>3.6303873792913799</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>78</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>3.2189990488862401</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>79</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>3.2765658515325602</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>80</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>4.7131239962856304</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>81</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>4.6973864769727802</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>82</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>7.8654679356270698</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>83</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>9.5527927574254203</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>84</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>12.6310286672262</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>85</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>14.3884020078919</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>86</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>13.108472193912499</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>88</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>17.380404824802302</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>89</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>21.214353182711999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>90</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>19.877833038909198</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>91</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>20.585933512115499</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>92</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>21.7148125680052</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>93</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>18.053764089924002</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>94</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>15.229375123119</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>95</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>12.271073773387799</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>9.5559413831896904</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>97</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>6.7987658989843798</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>98</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>8.8382631449147606</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>99</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>14.916206327819401</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>100</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>18.9255569269035</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>101</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>19.2936877736445</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>102</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>20.816834758423902</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>103</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>19.822525211009701</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>104</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>19.735692018938799</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>105</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>20.563415819598099</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>106</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>19.284434309126102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>107</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>19.404041446893</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>108</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>21.868725422018901</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>109</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>22.434756975635299</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>110</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>24.231143010592199</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>26.887048102060302</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>-20.841308519672499</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>-24.230202663951999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>-24.3981070933038</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>117</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>-26.254115233328399</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>118</v>
       </c>
@@ -3592,7 +3593,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="3"/>
     <col min="3" max="3" width="8.6640625" style="55"/>
@@ -3601,7 +3602,7 @@
     <col min="9" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3616,487 +3617,487 @@
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
     </row>
-    <row r="3" spans="1:8" s="24" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="24" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
     </row>
-    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
     </row>
-    <row r="12" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
     </row>
-    <row r="13" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
     </row>
-    <row r="14" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="56"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
     </row>
-    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="56"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
     </row>
-    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C16" s="56"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
     </row>
-    <row r="17" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17" s="56"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
     </row>
-    <row r="18" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="56"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
     </row>
-    <row r="19" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
     </row>
-    <row r="20" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="56"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="56"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
     </row>
-    <row r="22" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="56"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="56"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="56"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="56"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="56"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="56"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="56"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="56"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="56"/>
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
       <c r="H30" s="50"/>
     </row>
-    <row r="31" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="56"/>
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
       <c r="H31" s="50"/>
     </row>
-    <row r="32" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="56"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
     </row>
-    <row r="33" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="56"/>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
     </row>
-    <row r="34" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="56"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
     </row>
-    <row r="35" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="56"/>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
     </row>
-    <row r="36" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="56"/>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
     </row>
-    <row r="37" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="56"/>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50"/>
     </row>
-    <row r="38" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="56"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
     </row>
-    <row r="39" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="56"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
       <c r="H39" s="50"/>
     </row>
-    <row r="40" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="56"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
     </row>
-    <row r="41" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="56"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
       <c r="H41" s="50"/>
     </row>
-    <row r="42" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="56"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
     </row>
-    <row r="43" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="56"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
       <c r="H43" s="50"/>
     </row>
-    <row r="44" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="56"/>
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
       <c r="H44" s="50"/>
     </row>
-    <row r="45" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="56"/>
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
       <c r="H45" s="50"/>
     </row>
-    <row r="46" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="56"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
       <c r="H46" s="50"/>
     </row>
-    <row r="47" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="56"/>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
       <c r="H47" s="50"/>
     </row>
-    <row r="48" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="56"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
       <c r="H48" s="50"/>
     </row>
-    <row r="49" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="56"/>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
     </row>
-    <row r="50" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="56"/>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
       <c r="H50" s="50"/>
     </row>
-    <row r="51" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="56"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
       <c r="H51" s="50"/>
     </row>
-    <row r="52" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="56"/>
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
     </row>
-    <row r="53" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="56"/>
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
       <c r="H53" s="50"/>
     </row>
-    <row r="54" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="56"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
     </row>
-    <row r="55" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="56"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
     </row>
-    <row r="56" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="56"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
     </row>
-    <row r="57" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="56"/>
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
       <c r="G57" s="50"/>
       <c r="H57" s="50"/>
     </row>
-    <row r="58" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="56"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
     </row>
-    <row r="59" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="56"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
     </row>
-    <row r="60" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="56"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
     </row>
-    <row r="61" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="56"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
     </row>
-    <row r="62" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="56"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
     </row>
-    <row r="63" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="56"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
     </row>
-    <row r="64" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="56"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
       <c r="G64" s="50"/>
       <c r="H64" s="50"/>
     </row>
-    <row r="65" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="56"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
     </row>
-    <row r="66" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="56"/>
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
     </row>
-    <row r="67" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="56"/>
       <c r="E67" s="50"/>
       <c r="F67" s="50"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
     </row>
-    <row r="68" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="56"/>
       <c r="E68" s="50"/>
       <c r="F68" s="50"/>
       <c r="G68" s="50"/>
       <c r="H68" s="50"/>
     </row>
-    <row r="69" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="56"/>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
     </row>
-    <row r="70" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="56"/>
       <c r="E70" s="50"/>
       <c r="F70" s="50"/>
       <c r="G70" s="50"/>
       <c r="H70" s="50"/>
     </row>
-    <row r="71" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="56"/>
       <c r="E71" s="50"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
     </row>
-    <row r="72" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="56"/>
       <c r="E72" s="50"/>
       <c r="F72" s="50"/>
       <c r="G72" s="50"/>
       <c r="H72" s="50"/>
     </row>
-    <row r="73" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="56"/>
       <c r="E73" s="50"/>
       <c r="F73" s="50"/>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
     </row>
-    <row r="74" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="56"/>
       <c r="E74" s="50"/>
       <c r="F74" s="50"/>
@@ -4117,14 +4118,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="4" width="9.1640625" style="41"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="4" width="9.109375" style="41"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>12</v>
       </c>
@@ -4169,7 +4170,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>19</v>
       </c>
@@ -4188,7 +4189,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>31</v>
       </c>
@@ -4207,7 +4208,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>32</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>34</v>
       </c>
@@ -4245,7 +4246,7 @@
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>36</v>
       </c>
@@ -4264,7 +4265,7 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>40</v>
       </c>
@@ -4283,7 +4284,7 @@
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>46</v>
       </c>
@@ -4302,7 +4303,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>49</v>
       </c>
@@ -4321,7 +4322,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>54</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>59</v>
       </c>
@@ -4359,7 +4360,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>65</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>70</v>
       </c>
@@ -4398,7 +4399,7 @@
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>72</v>
       </c>
@@ -4417,7 +4418,7 @@
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>73</v>
       </c>
@@ -4436,7 +4437,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>76</v>
       </c>
@@ -4455,7 +4456,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>77</v>
       </c>
@@ -4474,7 +4475,7 @@
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>80</v>
       </c>
@@ -4493,7 +4494,7 @@
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>85</v>
       </c>
@@ -4512,7 +4513,7 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>89</v>
       </c>
@@ -4531,7 +4532,7 @@
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>90</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>92</v>
       </c>
@@ -4569,7 +4570,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>100</v>
       </c>
@@ -4588,7 +4589,7 @@
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>105</v>
       </c>
@@ -4607,7 +4608,7 @@
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>107</v>
       </c>
@@ -4626,7 +4627,7 @@
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>110</v>
       </c>
@@ -4645,7 +4646,7 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>112</v>
       </c>
@@ -4664,7 +4665,7 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>113</v>
       </c>
@@ -4692,16 +4693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE4402C-C892-4185-ACFC-0918E41EF0CD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>55</v>
       </c>
@@ -4745,6 +4746,47 @@
       </c>
       <c r="G2" s="24">
         <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BD1BB7-A36C-47DA-BE96-870888ECF8E4}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4760,12 +4802,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
@@ -4776,8 +4818,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777778" bottom="1.0527777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4796,14 +4838,14 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -4832,7 +4874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4861,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -4891,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -4921,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4951,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4981,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5011,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5041,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5071,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5101,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5131,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5161,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5191,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5221,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5251,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5281,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5311,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5341,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5371,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5401,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5431,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5461,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5491,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5521,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5551,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5581,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5611,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5641,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5671,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5701,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5731,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5761,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5791,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5821,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5851,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5881,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5911,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5941,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5971,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6001,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6031,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6061,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6091,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6121,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6151,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6181,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6211,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6241,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6271,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6301,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6331,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6361,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6391,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6421,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6451,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6481,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6511,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6541,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6571,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6601,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6631,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6661,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6691,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6721,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6751,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6781,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6811,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -6841,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6871,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6901,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6931,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6961,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6991,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -7021,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -7051,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -7081,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -7111,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -7141,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7171,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -7201,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7231,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7261,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -7291,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7321,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7351,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -7381,7 +7423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -7411,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -7441,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -7471,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7501,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -7531,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -7561,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -7591,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -7621,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -7651,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -7681,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -7711,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -7741,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -7771,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -7801,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -7831,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -7861,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -7891,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -7921,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -7951,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -7981,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -8011,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -8041,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -8071,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -8101,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -8131,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -8161,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -8191,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -8221,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -8251,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -8281,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -8311,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -8341,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -8371,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -8401,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -8431,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -8461,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -8491,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -8521,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -8551,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8581,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8611,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8641,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8671,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8701,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -8731,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A166" si="2">A131+1</f>
         <v>131</v>
@@ -8761,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -8791,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -8821,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -8851,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -8881,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -8911,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -8941,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -8971,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -9001,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -9031,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -9061,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -9091,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -9121,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -9151,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -9181,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -9211,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -9241,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -9271,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -9301,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -9331,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -9361,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -9391,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -9421,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -9451,7 +9493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -9481,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -9511,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -9541,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -9571,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -9601,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9631,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -9661,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -9691,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -9721,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -9751,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -9799,12 +9841,12 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -9855,7 +9897,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="8.6640625" style="8"/>
     <col min="9" max="9" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
@@ -9863,7 +9905,7 @@
     <col min="11" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -9898,7 +9940,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -9933,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
@@ -9969,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -10005,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10041,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10077,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10113,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10149,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10185,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10234,7 +10276,7 @@
       <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="8.6640625" style="1"/>
     <col min="9" max="9" width="8.6640625" style="7"/>
@@ -10244,7 +10286,7 @@
     <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -10276,7 +10318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -10310,7 +10352,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -10344,7 +10386,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -10378,7 +10420,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -10412,7 +10454,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -10446,7 +10488,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -10480,7 +10522,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -10514,7 +10556,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -10548,7 +10590,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -10582,7 +10624,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -10616,7 +10658,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -10650,7 +10692,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -10684,7 +10726,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -10718,7 +10760,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -10752,7 +10794,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -10786,7 +10828,7 @@
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
     </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -10820,7 +10862,7 @@
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -10854,7 +10896,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
     </row>
-    <row r="19" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -10888,7 +10930,7 @@
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
     </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -10922,7 +10964,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -10956,7 +10998,7 @@
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
     </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -10990,7 +11032,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
     </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -11024,7 +11066,7 @@
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
     </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -11058,7 +11100,7 @@
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
     </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -11092,7 +11134,7 @@
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -11126,7 +11168,7 @@
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
     </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -11160,7 +11202,7 @@
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
     </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -11194,7 +11236,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
     </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -11228,7 +11270,7 @@
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
     </row>
-    <row r="30" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -11262,7 +11304,7 @@
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
     </row>
-    <row r="31" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -11296,7 +11338,7 @@
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
     </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -11330,7 +11372,7 @@
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
     </row>
-    <row r="33" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -11364,7 +11406,7 @@
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
     </row>
-    <row r="34" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -11398,7 +11440,7 @@
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
     </row>
-    <row r="35" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -11432,7 +11474,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
     </row>
-    <row r="36" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -11466,7 +11508,7 @@
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
     </row>
-    <row r="37" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -11500,7 +11542,7 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
     </row>
-    <row r="38" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -11534,7 +11576,7 @@
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
     </row>
-    <row r="39" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -11568,7 +11610,7 @@
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
     </row>
-    <row r="40" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -11602,7 +11644,7 @@
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
     </row>
-    <row r="41" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -11636,7 +11678,7 @@
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
     </row>
-    <row r="42" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -11670,7 +11712,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
     </row>
-    <row r="43" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -11704,7 +11746,7 @@
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
     </row>
-    <row r="44" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -11738,7 +11780,7 @@
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
     </row>
-    <row r="45" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -11772,7 +11814,7 @@
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
     </row>
-    <row r="46" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>45</v>
       </c>
@@ -11806,7 +11848,7 @@
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
     </row>
-    <row r="47" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -11840,7 +11882,7 @@
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
     </row>
-    <row r="48" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -11874,7 +11916,7 @@
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
     </row>
-    <row r="49" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -11908,7 +11950,7 @@
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
     </row>
-    <row r="50" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>49</v>
       </c>
@@ -11942,7 +11984,7 @@
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
     </row>
-    <row r="51" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -11976,7 +12018,7 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
     </row>
-    <row r="52" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>51</v>
       </c>
@@ -12010,7 +12052,7 @@
       <c r="L52" s="38"/>
       <c r="M52" s="38"/>
     </row>
-    <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -12044,7 +12086,7 @@
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
     </row>
-    <row r="54" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>53</v>
       </c>
@@ -12078,7 +12120,7 @@
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
     </row>
-    <row r="55" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -12112,7 +12154,7 @@
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
     </row>
-    <row r="56" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>55</v>
       </c>
@@ -12146,7 +12188,7 @@
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
     </row>
-    <row r="57" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -12180,7 +12222,7 @@
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
     </row>
-    <row r="58" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -12214,7 +12256,7 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -12250,7 +12292,7 @@
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -12286,7 +12328,7 @@
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>60</v>
       </c>
@@ -12322,7 +12364,7 @@
       <c r="N61" s="24"/>
       <c r="O61" s="24"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>61</v>
       </c>
@@ -12358,7 +12400,7 @@
       <c r="N62" s="24"/>
       <c r="O62" s="24"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>62</v>
       </c>
@@ -12394,7 +12436,7 @@
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>63</v>
       </c>
@@ -12430,7 +12472,7 @@
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>64</v>
       </c>
@@ -12466,7 +12508,7 @@
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>65</v>
       </c>
@@ -12502,7 +12544,7 @@
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -12538,7 +12580,7 @@
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>67</v>
       </c>
@@ -12574,7 +12616,7 @@
       <c r="N68" s="24"/>
       <c r="O68" s="24"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -12610,7 +12652,7 @@
       <c r="N69" s="24"/>
       <c r="O69" s="24"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>69</v>
       </c>
@@ -12646,7 +12688,7 @@
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>70</v>
       </c>
@@ -12682,7 +12724,7 @@
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>71</v>
       </c>
@@ -12718,7 +12760,7 @@
       <c r="N72" s="24"/>
       <c r="O72" s="24"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -12754,7 +12796,7 @@
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>73</v>
       </c>
@@ -12790,7 +12832,7 @@
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>74</v>
       </c>
@@ -12826,7 +12868,7 @@
       <c r="N75" s="24"/>
       <c r="O75" s="24"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>75</v>
       </c>
@@ -12862,7 +12904,7 @@
       <c r="N76" s="24"/>
       <c r="O76" s="24"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -12898,7 +12940,7 @@
       <c r="N77" s="24"/>
       <c r="O77" s="24"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>77</v>
       </c>
@@ -12934,7 +12976,7 @@
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -12970,7 +13012,7 @@
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>79</v>
       </c>
@@ -13006,7 +13048,7 @@
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>80</v>
       </c>
@@ -13042,7 +13084,7 @@
       <c r="N81" s="24"/>
       <c r="O81" s="24"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>81</v>
       </c>
@@ -13078,7 +13120,7 @@
       <c r="N82" s="24"/>
       <c r="O82" s="24"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>82</v>
       </c>
@@ -13114,7 +13156,7 @@
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>83</v>
       </c>
@@ -13150,7 +13192,7 @@
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>84</v>
       </c>
@@ -13186,7 +13228,7 @@
       <c r="N85" s="24"/>
       <c r="O85" s="24"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -13222,7 +13264,7 @@
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <v>86</v>
       </c>
@@ -13258,7 +13300,7 @@
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <v>87</v>
       </c>
@@ -13294,7 +13336,7 @@
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
         <v>88</v>
       </c>
@@ -13330,7 +13372,7 @@
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <v>89</v>
       </c>
@@ -13366,7 +13408,7 @@
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <v>90</v>
       </c>
@@ -13402,13 +13444,13 @@
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M92" s="39"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M93" s="39"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M94" s="39"/>
     </row>
   </sheetData>
@@ -13429,7 +13471,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.6640625" style="1"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -13439,7 +13481,7 @@
     <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -13483,7 +13525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -13493,7 +13535,7 @@
       <c r="I2"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -13503,7 +13545,7 @@
       <c r="I3"/>
       <c r="K3" s="35"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -13513,7 +13555,7 @@
       <c r="I4"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -13523,7 +13565,7 @@
       <c r="I5"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -13533,7 +13575,7 @@
       <c r="I6"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -13543,7 +13585,7 @@
       <c r="I7"/>
       <c r="K7" s="35"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -13553,7 +13595,7 @@
       <c r="I8"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -13563,7 +13605,7 @@
       <c r="I9"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -13573,7 +13615,7 @@
       <c r="I10"/>
       <c r="K10" s="35"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -13583,7 +13625,7 @@
       <c r="I11"/>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -13593,7 +13635,7 @@
       <c r="I12"/>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -13603,7 +13645,7 @@
       <c r="I13"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -13613,7 +13655,7 @@
       <c r="I14"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -13623,7 +13665,7 @@
       <c r="I15"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -13633,7 +13675,7 @@
       <c r="I16"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -13643,7 +13685,7 @@
       <c r="I17"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -13653,7 +13695,7 @@
       <c r="I18"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -13663,7 +13705,7 @@
       <c r="I19"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -13673,7 +13715,7 @@
       <c r="I20"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -13683,7 +13725,7 @@
       <c r="I21"/>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -13693,7 +13735,7 @@
       <c r="I22"/>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -13703,7 +13745,7 @@
       <c r="I23"/>
       <c r="K23" s="35"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -13713,7 +13755,7 @@
       <c r="I24"/>
       <c r="K24" s="35"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -13723,7 +13765,7 @@
       <c r="I25"/>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -13733,7 +13775,7 @@
       <c r="I26"/>
       <c r="K26" s="35"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -13743,7 +13785,7 @@
       <c r="I27"/>
       <c r="K27" s="35"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -13753,7 +13795,7 @@
       <c r="I28"/>
       <c r="K28" s="35"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -13776,7 +13818,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="8.6640625" style="3" customWidth="1"/>
     <col min="13" max="29" width="8.6640625" style="1" customWidth="1"/>
@@ -13785,7 +13827,7 @@
     <col min="65" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
@@ -13887,7 +13929,7 @@
       <c r="AR1" s="22"/>
       <c r="AS1" s="22"/>
     </row>
-    <row r="2" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f>1</f>
         <v>1</v>
@@ -13986,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <f>A2+1</f>
         <v>2</v>
@@ -14085,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>3</v>
@@ -14184,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14298,7 +14340,7 @@
       <c r="BG5" s="13"/>
       <c r="BH5" s="13"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14397,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14496,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14595,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14694,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14793,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14892,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14991,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15090,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15189,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15288,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15387,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15486,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15585,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15684,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15783,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15882,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -15981,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -16080,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -16179,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -16278,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -16377,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -16476,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -16575,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -16704,7 +16746,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="8.6640625" style="1"/>
     <col min="16" max="17" width="8.6640625" style="52"/>
@@ -16712,7 +16754,7 @@
     <col min="19" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
@@ -16753,7 +16795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -16764,7 +16806,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -16776,7 +16818,7 @@
       <c r="I3" s="50"/>
       <c r="R3" s="53"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -16787,7 +16829,7 @@
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -16798,7 +16840,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -16809,7 +16851,7 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -16820,7 +16862,7 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -16831,7 +16873,7 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -16842,7 +16884,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -16853,7 +16895,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -16864,7 +16906,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -16875,7 +16917,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -16886,7 +16928,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -16897,7 +16939,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -16908,7 +16950,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -16919,7 +16961,7 @@
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -16930,7 +16972,7 @@
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -16941,7 +16983,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -16952,7 +16994,7 @@
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -16963,7 +17005,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -16974,7 +17016,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -16985,7 +17027,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="50"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -16996,7 +17038,7 @@
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -17007,7 +17049,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -17018,7 +17060,7 @@
       <c r="H25" s="50"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -17029,7 +17071,7 @@
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -17040,7 +17082,7 @@
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -17051,7 +17093,7 @@
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -17062,7 +17104,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -17073,7 +17115,7 @@
       <c r="H30" s="50"/>
       <c r="I30" s="50"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -17084,7 +17126,7 @@
       <c r="H31" s="50"/>
       <c r="I31" s="50"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -17095,7 +17137,7 @@
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -17106,7 +17148,7 @@
       <c r="H33" s="50"/>
       <c r="I33" s="50"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -17117,7 +17159,7 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -17128,7 +17170,7 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -17139,7 +17181,7 @@
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -17150,7 +17192,7 @@
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -17161,7 +17203,7 @@
       <c r="H38" s="50"/>
       <c r="I38" s="50"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -17172,7 +17214,7 @@
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -17183,7 +17225,7 @@
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -17194,7 +17236,7 @@
       <c r="H41" s="50"/>
       <c r="I41" s="50"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -17205,7 +17247,7 @@
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -17216,7 +17258,7 @@
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -17227,7 +17269,7 @@
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -17238,7 +17280,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -17249,7 +17291,7 @@
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -17260,7 +17302,7 @@
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -17271,7 +17313,7 @@
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -17282,7 +17324,7 @@
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -17293,7 +17335,7 @@
       <c r="H50" s="50"/>
       <c r="I50" s="50"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -17304,7 +17346,7 @@
       <c r="H51" s="50"/>
       <c r="I51" s="50"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -17315,7 +17357,7 @@
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -17326,7 +17368,7 @@
       <c r="H53" s="50"/>
       <c r="I53" s="50"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -17337,7 +17379,7 @@
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -17348,7 +17390,7 @@
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56"/>
       <c r="C56"/>
